--- a/FORMATO MUNDIAL 2 alondra.v.s.xlsx
+++ b/FORMATO MUNDIAL 2 alondra.v.s.xlsx
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROOT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Em99WbEBs/yRI3rW6E5thu2SVKQbOB9ktmRwFJHx8fgJwmoj/ZY6qa599jN/BRW6INoaX+Zc0vSu8dzHt4FxoQ==" workbookSaltValue="1h6fxj6jkfIp+YG3Bxv6Xw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="6975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1857,6 +1858,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="AH16:AH44"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="L19:L27"/>
+    <mergeCell ref="L33:L41"/>
     <mergeCell ref="BA3:BC3"/>
     <mergeCell ref="BA17:BC17"/>
     <mergeCell ref="BA31:BC31"/>
@@ -1866,14 +1875,6 @@
     <mergeCell ref="R37:R51"/>
     <mergeCell ref="AN9:AN23"/>
     <mergeCell ref="AN37:AN51"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="AH16:AH44"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="L19:L27"/>
-    <mergeCell ref="L33:L41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
